--- a/Code/Resultados_Analisis/Analisis_Global/efectos_patrones_detallados.xlsx
+++ b/Code/Resultados_Analisis/Analisis_Global/efectos_patrones_detallados.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.05965209538169368</v>
+        <v>0.04729165577382676</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004161412266335575</v>
+        <v>6.038199454338264e-06</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08981149512461392</v>
+        <v>0.07743981254005844</v>
       </c>
       <c r="D3" t="n">
-        <v>1.344775255240205e-10</v>
+        <v>2.273624522882977e-19</v>
       </c>
     </row>
     <row r="4">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08278593411551531</v>
+        <v>0.1076569468820822</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005709604899765019</v>
+        <v>2.235297920063209e-05</v>
       </c>
     </row>
     <row r="5">
@@ -512,14 +512,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>264.6632541080538</v>
+        <v>-188.6207103560134</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003718144866234057</v>
+        <v>4.716752189197436e-05</v>
       </c>
     </row>
     <row r="6">
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>151.5217535979905</v>
+        <v>101.4549198018583</v>
       </c>
       <c r="D6" t="n">
-        <v>2.361542883583249e-09</v>
+        <v>9.108779327405266e-11</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27.54349575630735</v>
+        <v>11.01296504767902</v>
       </c>
       <c r="D7" t="n">
-        <v>6.236320017374799e-05</v>
+        <v>0.009076313787525143</v>
       </c>
     </row>
     <row r="8">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>89.61239192388093</v>
+        <v>52.78726680170318</v>
       </c>
       <c r="D8" t="n">
-        <v>6.807400257779235e-05</v>
+        <v>0.000148350740859325</v>
       </c>
     </row>
     <row r="9">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.08278593411551531</v>
+        <v>0.1076569468820822</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005709604899765019</v>
+        <v>2.235297920063209e-05</v>
       </c>
     </row>
     <row r="10">
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.08981149512461392</v>
+        <v>0.07743981254005844</v>
       </c>
       <c r="D10" t="n">
-        <v>1.344775255240205e-10</v>
+        <v>2.273624522882977e-19</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01368221605307471</v>
+        <v>0.007692915830670023</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0008384908918112698</v>
+        <v>0.002208242148135541</v>
       </c>
     </row>
     <row r="12">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04596987932861894</v>
+        <v>0.03959873994315675</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002761824249410001</v>
+        <v>3.033871965397676e-05</v>
       </c>
     </row>
   </sheetData>
